--- a/doc/test-centralizzati/mappingTestAutomaticiAD.xlsx
+++ b/doc/test-centralizzati/mappingTestAutomaticiAD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28627"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vincenzoingenito/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{54A3B4D2-68C9-403B-8A43-FD75DA28B1B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C6F2FCC-B556-CF49-9557-2472D296CE9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="520" windowWidth="34560" windowHeight="19600" firstSheet="8" activeTab="8" xr2:uid="{C2A9AF4D-D7CD-6D46-A8B6-F6E059BEFA2F}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19600" activeTab="8" xr2:uid="{C2A9AF4D-D7CD-6D46-A8B6-F6E059BEFA2F}"/>
   </bookViews>
   <sheets>
     <sheet name="LAB" sheetId="4" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2146" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2725" uniqueCount="136">
   <si>
     <t>SAML HEADER</t>
   </si>
@@ -468,12 +468,53 @@
   <si>
     <t>11526-1</t>
   </si>
+  <si>
+    <t>BODY TC 1 UPDATE PER AD 2.6.1</t>
+  </si>
+  <si>
+    <t>NOTE</t>
+  </si>
+  <si>
+    <t>Tale test case viene eseguito per l'affinity domain 2.6.1.
+I campi dell'header da come riportato sopra differiscono solo per ACTION: UPDATE e purpose_of_use: ACCESS UPDATE</t>
+  </si>
+  <si>
+    <t>024578^Tachipirina^2.16.840.1.113883.2.9.6.1.5</t>
+  </si>
+  <si>
+    <r>
+      <t>GTW_NAME^^^^^</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>&amp;amp;2.16.840.1.113883.2.9.4.1.3&amp;amp;ISO^^^^GTW_STRUCTURE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>CONS^^^</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>&amp;amp;2.16.840.1.113883.2.9.3.3.6.1.7&amp;amp;ISO</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -571,14 +612,28 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
-      <color rgb="FF17C6A3"/>
-      <name val="Menlo"/>
-      <family val="2"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -627,8 +682,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB5E6A2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -693,11 +754,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -727,7 +810,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -745,6 +827,31 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1081,39 +1188,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E78CD48-99F4-E748-910D-D540D379E03B}">
-  <dimension ref="A1:H60"/>
+  <dimension ref="A1:H97"/>
   <sheetViews>
-    <sheetView topLeftCell="C19" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="A83" sqref="A83:XFD83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="53.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="100.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="53.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="100.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="100.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="100.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="33.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="100.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="100.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
-    </row>
-    <row r="4" spans="1:8" ht="24">
+      <c r="B1" s="22"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
+    </row>
+    <row r="4" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>1</v>
       </c>
@@ -1121,7 +1228,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="18.95">
+    <row r="5" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1135,7 +1242,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:8" ht="18.95">
+    <row r="6" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1148,7 +1255,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" ht="18.95">
+    <row r="7" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -1161,7 +1268,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" ht="18.95">
+    <row r="8" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -1174,7 +1281,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" ht="18.95">
+    <row r="9" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -1184,7 +1291,7 @@
       <c r="C9" s="6"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:8" ht="18.95">
+    <row r="10" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -1194,7 +1301,7 @@
       <c r="C10" s="6"/>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="1:8" ht="15.95" customHeight="1">
+    <row r="11" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
@@ -1203,7 +1310,7 @@
       </c>
       <c r="C11" s="6"/>
     </row>
-    <row r="12" spans="1:8" ht="15.95" customHeight="1">
+    <row r="12" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
@@ -1212,7 +1319,7 @@
       </c>
       <c r="C12" s="6"/>
     </row>
-    <row r="13" spans="1:8" ht="35.1">
+    <row r="13" spans="1:8" ht="35" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
@@ -1220,7 +1327,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="18.95">
+    <row r="14" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
@@ -1228,7 +1335,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="18.95">
+    <row r="15" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
@@ -1236,7 +1343,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="18.95">
+    <row r="16" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
@@ -1244,7 +1351,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="18.95">
+    <row r="17" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
@@ -1252,7 +1359,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="18.95">
+    <row r="18" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
@@ -1260,40 +1367,40 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="18.95">
-      <c r="A19" s="22"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="23" t="s">
+    <row r="19" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A19" s="21"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="23"/>
-      <c r="C20" s="25" t="s">
+      <c r="B20" s="22"/>
+      <c r="C20" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="25"/>
-      <c r="E20" s="26" t="s">
+      <c r="D20" s="24"/>
+      <c r="E20" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="F20" s="26"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="23"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="24"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-    </row>
-    <row r="23" spans="1:6" ht="24">
+      <c r="F20" s="25"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="22"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="23"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+    </row>
+    <row r="23" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
         <v>1</v>
       </c>
@@ -1313,7 +1420,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="20" t="s">
         <v>34</v>
       </c>
@@ -1333,7 +1440,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="20" t="s">
         <v>36</v>
       </c>
@@ -1353,7 +1460,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="20" t="s">
         <v>38</v>
       </c>
@@ -1373,7 +1480,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="20" t="s">
         <v>40</v>
       </c>
@@ -1393,7 +1500,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="20" t="s">
         <v>42</v>
       </c>
@@ -1413,7 +1520,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="33.950000000000003">
+    <row r="29" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A29" s="20" t="s">
         <v>44</v>
       </c>
@@ -1433,7 +1540,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="20" t="s">
         <v>45</v>
       </c>
@@ -1453,7 +1560,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="20" t="s">
         <v>47</v>
       </c>
@@ -1473,7 +1580,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="20" t="s">
         <v>51</v>
       </c>
@@ -1493,7 +1600,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="20" t="s">
         <v>53</v>
       </c>
@@ -1513,7 +1620,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="20" t="s">
         <v>54</v>
       </c>
@@ -1533,7 +1640,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="20" t="s">
         <v>56</v>
       </c>
@@ -1553,7 +1660,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="20" t="s">
         <v>58</v>
       </c>
@@ -1573,7 +1680,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="20" t="s">
         <v>59</v>
       </c>
@@ -1593,7 +1700,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="20" t="s">
         <v>61</v>
       </c>
@@ -1613,7 +1720,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="20" t="s">
         <v>65</v>
       </c>
@@ -1633,7 +1740,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="20" t="s">
         <v>69</v>
       </c>
@@ -1653,7 +1760,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="20" t="s">
         <v>71</v>
       </c>
@@ -1673,7 +1780,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="20" t="s">
         <v>75</v>
       </c>
@@ -1693,7 +1800,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="20" t="s">
         <v>79</v>
       </c>
@@ -1713,7 +1820,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="20" t="s">
         <v>83</v>
       </c>
@@ -1733,7 +1840,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="20" t="s">
         <v>85</v>
       </c>
@@ -1753,7 +1860,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="20" t="s">
         <v>86</v>
       </c>
@@ -1773,7 +1880,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="33.950000000000003">
+    <row r="47" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A47" s="20" t="s">
         <v>88</v>
       </c>
@@ -1793,7 +1900,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="20" t="s">
         <v>89</v>
       </c>
@@ -1813,7 +1920,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="20" t="s">
         <v>91</v>
       </c>
@@ -1833,7 +1940,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="20" t="s">
         <v>38</v>
       </c>
@@ -1853,7 +1960,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="20" t="s">
         <v>93</v>
       </c>
@@ -1873,7 +1980,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="20" t="s">
         <v>95</v>
       </c>
@@ -1893,7 +2000,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="20" t="s">
         <v>97</v>
       </c>
@@ -1913,7 +2020,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="20" t="s">
         <v>98</v>
       </c>
@@ -1933,7 +2040,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="20" t="s">
         <v>102</v>
       </c>
@@ -1953,7 +2060,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="20" t="s">
         <v>104</v>
       </c>
@@ -1973,7 +2080,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="33.950000000000003">
+    <row r="57" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A57" s="20" t="s">
         <v>106</v>
       </c>
@@ -1993,15 +2100,289 @@
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
-      <c r="B60" s="21"/>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="B62" s="29" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="28"/>
+      <c r="B63" s="30"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="B64" s="22"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="22"/>
+      <c r="B65" s="22"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="23"/>
+      <c r="B66" s="23"/>
+    </row>
+    <row r="67" spans="1:2" ht="24" x14ac:dyDescent="0.3">
+      <c r="A67" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A73" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B73" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A89" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="B89" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A97" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="B97" s="12" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
     <mergeCell ref="A1:B3"/>
     <mergeCell ref="A20:B22"/>
     <mergeCell ref="C20:D22"/>
     <mergeCell ref="E20:F22"/>
+    <mergeCell ref="A64:B66"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="B62:B63"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
@@ -2012,33 +2393,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A63FCEFB-0177-CE4D-8614-01073B8B8CAF}">
-  <dimension ref="A1:U55"/>
+  <dimension ref="A1:U94"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="A80" sqref="A80:XFD80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="53.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="100.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="100.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="100.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="53.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="100.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="100.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="100.1640625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="24.875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="29.625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="24.875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.6640625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
+      <c r="B1" s="26"/>
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
@@ -2046,21 +2427,21 @@
       <c r="T1" s="3"/>
       <c r="U1" s="4"/>
     </row>
-    <row r="2" spans="1:21">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
     </row>
-    <row r="3" spans="1:21">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
       <c r="P3" s="4"/>
       <c r="Q3" s="5"/>
     </row>
-    <row r="4" spans="1:21" ht="24">
+    <row r="4" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>1</v>
       </c>
@@ -2069,7 +2450,7 @@
       </c>
       <c r="P4" s="4"/>
     </row>
-    <row r="5" spans="1:21" ht="18.95">
+    <row r="5" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>3</v>
       </c>
@@ -2077,7 +2458,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="18.95">
+    <row r="6" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
@@ -2085,7 +2466,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="18.95">
+    <row r="7" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>7</v>
       </c>
@@ -2093,7 +2474,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="18.95">
+    <row r="8" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>9</v>
       </c>
@@ -2101,7 +2482,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="18.95">
+    <row r="9" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>11</v>
       </c>
@@ -2109,7 +2490,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="18.95">
+    <row r="10" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>13</v>
       </c>
@@ -2117,7 +2498,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="18.95">
+    <row r="11" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>15</v>
       </c>
@@ -2125,7 +2506,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="18.95">
+    <row r="12" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>17</v>
       </c>
@@ -2133,7 +2514,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="35.1">
+    <row r="13" spans="1:21" ht="35" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>19</v>
       </c>
@@ -2141,7 +2522,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="18.95">
+    <row r="14" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>21</v>
       </c>
@@ -2149,7 +2530,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="18.95">
+    <row r="15" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>23</v>
       </c>
@@ -2157,7 +2538,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="18.95">
+    <row r="16" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>25</v>
       </c>
@@ -2165,7 +2546,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="18.95">
+    <row r="17" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>27</v>
       </c>
@@ -2173,7 +2554,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="18.95">
+    <row r="18" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>29</v>
       </c>
@@ -2181,37 +2562,37 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.95" customHeight="1">
-      <c r="A19" s="23" t="s">
+    <row r="19" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="25" t="s">
+      <c r="B19" s="22"/>
+      <c r="C19" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="25"/>
-      <c r="E19" s="26" t="s">
+      <c r="D19" s="24"/>
+      <c r="E19" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="F19" s="26"/>
-    </row>
-    <row r="20" spans="1:6" ht="15.95" customHeight="1">
-      <c r="A20" s="23"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-    </row>
-    <row r="21" spans="1:6" ht="15.95" customHeight="1">
-      <c r="A21" s="24"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-    </row>
-    <row r="22" spans="1:6" ht="24">
+      <c r="F19" s="25"/>
+    </row>
+    <row r="20" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="22"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+    </row>
+    <row r="21" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="23"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+    </row>
+    <row r="22" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>1</v>
       </c>
@@ -2231,7 +2612,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="20" t="s">
         <v>34</v>
       </c>
@@ -2251,7 +2632,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="20" t="s">
         <v>36</v>
       </c>
@@ -2271,7 +2652,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="20" t="s">
         <v>38</v>
       </c>
@@ -2291,7 +2672,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="20" t="s">
         <v>40</v>
       </c>
@@ -2311,7 +2692,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="20" t="s">
         <v>42</v>
       </c>
@@ -2331,7 +2712,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="33.950000000000003">
+    <row r="28" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" s="20" t="s">
         <v>44</v>
       </c>
@@ -2351,7 +2732,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="20" t="s">
         <v>45</v>
       </c>
@@ -2371,7 +2752,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="20" t="s">
         <v>47</v>
       </c>
@@ -2391,7 +2772,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="20" t="s">
         <v>51</v>
       </c>
@@ -2411,7 +2792,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="20" t="s">
         <v>53</v>
       </c>
@@ -2431,7 +2812,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="20" t="s">
         <v>54</v>
       </c>
@@ -2451,7 +2832,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="20" t="s">
         <v>56</v>
       </c>
@@ -2471,7 +2852,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="20" t="s">
         <v>58</v>
       </c>
@@ -2491,7 +2872,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="20" t="s">
         <v>61</v>
       </c>
@@ -2511,7 +2892,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="20" t="s">
         <v>65</v>
       </c>
@@ -2531,7 +2912,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="20" t="s">
         <v>69</v>
       </c>
@@ -2551,7 +2932,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="20" t="s">
         <v>71</v>
       </c>
@@ -2571,7 +2952,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="20" t="s">
         <v>75</v>
       </c>
@@ -2591,7 +2972,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="20" t="s">
         <v>79</v>
       </c>
@@ -2611,7 +2992,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="20" t="s">
         <v>83</v>
       </c>
@@ -2631,7 +3012,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="20" t="s">
         <v>85</v>
       </c>
@@ -2651,7 +3032,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="20" t="s">
         <v>86</v>
       </c>
@@ -2671,7 +3052,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="33.950000000000003">
+    <row r="45" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A45" s="20" t="s">
         <v>88</v>
       </c>
@@ -2691,7 +3072,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="20" t="s">
         <v>89</v>
       </c>
@@ -2711,7 +3092,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="20" t="s">
         <v>91</v>
       </c>
@@ -2731,7 +3112,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="20" t="s">
         <v>38</v>
       </c>
@@ -2751,7 +3132,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="20" t="s">
         <v>93</v>
       </c>
@@ -2771,7 +3152,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="20" t="s">
         <v>95</v>
       </c>
@@ -2791,7 +3172,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="20" t="s">
         <v>97</v>
       </c>
@@ -2811,7 +3192,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="20" t="s">
         <v>98</v>
       </c>
@@ -2831,7 +3212,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="20" t="s">
         <v>102</v>
       </c>
@@ -2851,7 +3232,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="20" t="s">
         <v>104</v>
       </c>
@@ -2871,7 +3252,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="33.950000000000003">
+    <row r="55" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A55" s="20" t="s">
         <v>106</v>
       </c>
@@ -2891,12 +3272,289 @@
         <v>20</v>
       </c>
     </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="B59" s="29" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="28"/>
+      <c r="B60" s="30"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="B61" s="22"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="22"/>
+      <c r="B62" s="22"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="23"/>
+      <c r="B63" s="23"/>
+    </row>
+    <row r="64" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+      <c r="A64" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A70" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B70" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A86" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="B86" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A94" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="B94" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
+    <mergeCell ref="A61:B63"/>
     <mergeCell ref="A1:B3"/>
     <mergeCell ref="A19:B21"/>
     <mergeCell ref="C19:D21"/>
     <mergeCell ref="E19:F21"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
@@ -2907,29 +3565,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D08C217F-77C2-B24D-8777-C941C0255ADD}">
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A80" sqref="A80:XFD80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="53.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="100.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="100.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="100.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="53.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="100.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="100.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="100.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
+      <c r="B1" s="26"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -2937,9 +3595,9 @@
       <c r="G1" s="3"/>
       <c r="H1" s="4"/>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="7"/>
@@ -2947,11 +3605,11 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-    </row>
-    <row r="4" spans="1:8" ht="24">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
+    </row>
+    <row r="4" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>1</v>
       </c>
@@ -2959,7 +3617,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="18.95">
+    <row r="5" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>3</v>
       </c>
@@ -2967,7 +3625,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18.95">
+    <row r="6" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
@@ -2975,7 +3633,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18.95">
+    <row r="7" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>7</v>
       </c>
@@ -2983,7 +3641,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="18.95">
+    <row r="8" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>9</v>
       </c>
@@ -2991,7 +3649,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="18.95">
+    <row r="9" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>11</v>
       </c>
@@ -2999,7 +3657,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="18.95">
+    <row r="10" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>13</v>
       </c>
@@ -3007,7 +3665,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="18.95">
+    <row r="11" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>15</v>
       </c>
@@ -3015,7 +3673,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="18.95">
+    <row r="12" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>17</v>
       </c>
@@ -3023,7 +3681,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="35.1">
+    <row r="13" spans="1:8" ht="35" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>19</v>
       </c>
@@ -3031,7 +3689,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="18.95">
+    <row r="14" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>21</v>
       </c>
@@ -3039,7 +3697,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="18.95">
+    <row r="15" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>23</v>
       </c>
@@ -3047,7 +3705,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="18.95">
+    <row r="16" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>25</v>
       </c>
@@ -3055,7 +3713,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="18.95">
+    <row r="17" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>27</v>
       </c>
@@ -3063,7 +3721,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="18.95">
+    <row r="18" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>29</v>
       </c>
@@ -3071,37 +3729,37 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.95" customHeight="1">
-      <c r="A19" s="23" t="s">
+    <row r="19" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="25" t="s">
+      <c r="B19" s="22"/>
+      <c r="C19" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="25"/>
-      <c r="E19" s="26" t="s">
+      <c r="D19" s="24"/>
+      <c r="E19" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="F19" s="26"/>
-    </row>
-    <row r="20" spans="1:6" ht="15.95" customHeight="1">
-      <c r="A20" s="23"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-    </row>
-    <row r="21" spans="1:6" ht="15.95" customHeight="1">
-      <c r="A21" s="24"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-    </row>
-    <row r="22" spans="1:6" ht="24">
+      <c r="F19" s="25"/>
+    </row>
+    <row r="20" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="22"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+    </row>
+    <row r="21" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="23"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+    </row>
+    <row r="22" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>1</v>
       </c>
@@ -3121,7 +3779,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="20" t="s">
         <v>34</v>
       </c>
@@ -3141,7 +3799,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="20" t="s">
         <v>36</v>
       </c>
@@ -3161,7 +3819,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="20" t="s">
         <v>38</v>
       </c>
@@ -3181,7 +3839,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="20" t="s">
         <v>40</v>
       </c>
@@ -3201,7 +3859,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="20" t="s">
         <v>42</v>
       </c>
@@ -3221,7 +3879,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="33.950000000000003">
+    <row r="28" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" s="20" t="s">
         <v>44</v>
       </c>
@@ -3241,7 +3899,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="20" t="s">
         <v>45</v>
       </c>
@@ -3261,7 +3919,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="20" t="s">
         <v>47</v>
       </c>
@@ -3281,7 +3939,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="20" t="s">
         <v>51</v>
       </c>
@@ -3301,7 +3959,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="20" t="s">
         <v>53</v>
       </c>
@@ -3321,7 +3979,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="20" t="s">
         <v>54</v>
       </c>
@@ -3341,7 +3999,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="20" t="s">
         <v>56</v>
       </c>
@@ -3361,7 +4019,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="20" t="s">
         <v>58</v>
       </c>
@@ -3381,7 +4039,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="20" t="s">
         <v>61</v>
       </c>
@@ -3401,7 +4059,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="20" t="s">
         <v>65</v>
       </c>
@@ -3421,7 +4079,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="20" t="s">
         <v>69</v>
       </c>
@@ -3441,7 +4099,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="20" t="s">
         <v>71</v>
       </c>
@@ -3461,7 +4119,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="20" t="s">
         <v>75</v>
       </c>
@@ -3481,7 +4139,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="20" t="s">
         <v>79</v>
       </c>
@@ -3501,7 +4159,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="20" t="s">
         <v>83</v>
       </c>
@@ -3521,7 +4179,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="20" t="s">
         <v>85</v>
       </c>
@@ -3541,7 +4199,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="20" t="s">
         <v>86</v>
       </c>
@@ -3561,7 +4219,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="33.950000000000003">
+    <row r="45" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A45" s="20" t="s">
         <v>88</v>
       </c>
@@ -3581,7 +4239,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="20" t="s">
         <v>89</v>
       </c>
@@ -3601,7 +4259,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="20" t="s">
         <v>91</v>
       </c>
@@ -3621,7 +4279,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="20" t="s">
         <v>38</v>
       </c>
@@ -3641,7 +4299,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="20" t="s">
         <v>93</v>
       </c>
@@ -3661,7 +4319,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="20" t="s">
         <v>95</v>
       </c>
@@ -3681,7 +4339,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="20" t="s">
         <v>97</v>
       </c>
@@ -3701,7 +4359,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="20" t="s">
         <v>98</v>
       </c>
@@ -3721,7 +4379,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="20" t="s">
         <v>102</v>
       </c>
@@ -3741,7 +4399,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="20" t="s">
         <v>104</v>
       </c>
@@ -3761,7 +4419,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="33.950000000000003">
+    <row r="55" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A55" s="20" t="s">
         <v>106</v>
       </c>
@@ -3781,12 +4439,289 @@
         <v>20</v>
       </c>
     </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="B59" s="29" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="28"/>
+      <c r="B60" s="30"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="B61" s="22"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="22"/>
+      <c r="B62" s="22"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="23"/>
+      <c r="B63" s="23"/>
+    </row>
+    <row r="64" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+      <c r="A64" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A70" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B70" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A86" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="B86" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A94" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="B94" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
+    <mergeCell ref="A61:B63"/>
     <mergeCell ref="A1:B3"/>
     <mergeCell ref="A19:B21"/>
     <mergeCell ref="C19:D21"/>
     <mergeCell ref="E19:F21"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
@@ -3797,35 +4732,35 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{545AEE33-93DE-FD4B-A788-DADA12D25424}">
-  <dimension ref="A1:U55"/>
+  <dimension ref="A1:U94"/>
   <sheetViews>
-    <sheetView topLeftCell="C17" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A80" sqref="A80:XFD80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="53.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="100.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="100.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="100.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="53.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="100.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="100.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="100.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="28.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.83203125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="24.875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="29.625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="24.875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.6640625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
+      <c r="B1" s="26"/>
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
@@ -3833,20 +4768,20 @@
       <c r="T1" s="3"/>
       <c r="U1" s="4"/>
     </row>
-    <row r="2" spans="1:21">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
     </row>
-    <row r="3" spans="1:21">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-    </row>
-    <row r="4" spans="1:21" ht="24">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
+    </row>
+    <row r="4" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>1</v>
       </c>
@@ -3854,7 +4789,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="18.95">
+    <row r="5" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>3</v>
       </c>
@@ -3862,7 +4797,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="18.95">
+    <row r="6" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
@@ -3870,7 +4805,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="18.95">
+    <row r="7" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>7</v>
       </c>
@@ -3878,7 +4813,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="18.95">
+    <row r="8" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>9</v>
       </c>
@@ -3886,7 +4821,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="18.95">
+    <row r="9" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>11</v>
       </c>
@@ -3894,7 +4829,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="18.95">
+    <row r="10" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>13</v>
       </c>
@@ -3902,7 +4837,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="18.95">
+    <row r="11" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>15</v>
       </c>
@@ -3910,7 +4845,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="18.95">
+    <row r="12" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>17</v>
       </c>
@@ -3918,7 +4853,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="35.1">
+    <row r="13" spans="1:21" ht="35" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>19</v>
       </c>
@@ -3926,7 +4861,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="18.95">
+    <row r="14" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>21</v>
       </c>
@@ -3934,7 +4869,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="18.95">
+    <row r="15" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>23</v>
       </c>
@@ -3942,7 +4877,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="18.95">
+    <row r="16" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>25</v>
       </c>
@@ -3950,7 +4885,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="18.95">
+    <row r="17" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>27</v>
       </c>
@@ -3958,7 +4893,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="18.95">
+    <row r="18" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>29</v>
       </c>
@@ -3966,37 +4901,37 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.95" customHeight="1">
-      <c r="A19" s="23" t="s">
+    <row r="19" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="25" t="s">
+      <c r="B19" s="22"/>
+      <c r="C19" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="25"/>
-      <c r="E19" s="26" t="s">
+      <c r="D19" s="24"/>
+      <c r="E19" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="F19" s="26"/>
-    </row>
-    <row r="20" spans="1:6" ht="15.95" customHeight="1">
-      <c r="A20" s="23"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-    </row>
-    <row r="21" spans="1:6" ht="15.95" customHeight="1">
-      <c r="A21" s="24"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-    </row>
-    <row r="22" spans="1:6" ht="24">
+      <c r="F19" s="25"/>
+    </row>
+    <row r="20" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="22"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+    </row>
+    <row r="21" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="23"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+    </row>
+    <row r="22" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>1</v>
       </c>
@@ -4016,7 +4951,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="20" t="s">
         <v>34</v>
       </c>
@@ -4036,7 +4971,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="20" t="s">
         <v>36</v>
       </c>
@@ -4056,7 +4991,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="20" t="s">
         <v>38</v>
       </c>
@@ -4076,7 +5011,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="20" t="s">
         <v>40</v>
       </c>
@@ -4096,7 +5031,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="20" t="s">
         <v>42</v>
       </c>
@@ -4116,7 +5051,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="33.950000000000003">
+    <row r="28" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" s="20" t="s">
         <v>44</v>
       </c>
@@ -4136,7 +5071,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="20" t="s">
         <v>45</v>
       </c>
@@ -4156,7 +5091,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="20" t="s">
         <v>47</v>
       </c>
@@ -4176,7 +5111,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="20" t="s">
         <v>51</v>
       </c>
@@ -4196,7 +5131,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="20" t="s">
         <v>53</v>
       </c>
@@ -4216,7 +5151,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="20" t="s">
         <v>54</v>
       </c>
@@ -4236,7 +5171,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="20" t="s">
         <v>56</v>
       </c>
@@ -4256,7 +5191,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="20" t="s">
         <v>58</v>
       </c>
@@ -4276,7 +5211,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="20" t="s">
         <v>61</v>
       </c>
@@ -4296,7 +5231,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="20" t="s">
         <v>65</v>
       </c>
@@ -4316,7 +5251,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="20" t="s">
         <v>69</v>
       </c>
@@ -4336,7 +5271,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="20" t="s">
         <v>71</v>
       </c>
@@ -4356,7 +5291,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="20" t="s">
         <v>75</v>
       </c>
@@ -4376,7 +5311,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="20" t="s">
         <v>79</v>
       </c>
@@ -4396,7 +5331,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="20" t="s">
         <v>83</v>
       </c>
@@ -4416,7 +5351,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="20" t="s">
         <v>85</v>
       </c>
@@ -4436,7 +5371,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="20" t="s">
         <v>86</v>
       </c>
@@ -4456,7 +5391,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="33.950000000000003">
+    <row r="45" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A45" s="20" t="s">
         <v>88</v>
       </c>
@@ -4476,7 +5411,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="20" t="s">
         <v>89</v>
       </c>
@@ -4496,7 +5431,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="20" t="s">
         <v>91</v>
       </c>
@@ -4516,7 +5451,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="20" t="s">
         <v>38</v>
       </c>
@@ -4536,7 +5471,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="20" t="s">
         <v>93</v>
       </c>
@@ -4556,7 +5491,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="20" t="s">
         <v>95</v>
       </c>
@@ -4576,7 +5511,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="20" t="s">
         <v>97</v>
       </c>
@@ -4596,7 +5531,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="20" t="s">
         <v>98</v>
       </c>
@@ -4616,7 +5551,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="20" t="s">
         <v>102</v>
       </c>
@@ -4636,7 +5571,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="20" t="s">
         <v>104</v>
       </c>
@@ -4656,7 +5591,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="33.950000000000003">
+    <row r="55" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A55" s="20" t="s">
         <v>106</v>
       </c>
@@ -4676,12 +5611,289 @@
         <v>20</v>
       </c>
     </row>
+    <row r="59" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="B59" s="34" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="33"/>
+      <c r="B60" s="35"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="B61" s="36"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="26"/>
+      <c r="B62" s="26"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="27"/>
+      <c r="B63" s="27"/>
+    </row>
+    <row r="64" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+      <c r="A64" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B64" s="14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B65" s="16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B66" s="16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B67" s="16" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B68" s="16" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B69" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A70" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="B70" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B71" s="16" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="B72" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="B73" s="16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="B74" s="16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="B75" s="16">
+        <v>20250417090000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="B76" s="16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="B77" s="16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="B78" s="16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B79" s="16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="B80" s="16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="B81" s="16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="B82" s="16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="B83" s="16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="B84" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="B85" s="16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A86" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="B86" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="B87" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="B88" s="16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="B89" s="16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="B90" s="16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="B91" s="16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="B92" s="16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="B93" s="16" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A94" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="B94" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
+    <mergeCell ref="A61:B63"/>
     <mergeCell ref="A1:B3"/>
     <mergeCell ref="A19:B21"/>
     <mergeCell ref="C19:D21"/>
     <mergeCell ref="E19:F21"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
@@ -4692,33 +5904,33 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDD6FF27-3CCC-AD43-A5F5-DE554DB574B2}">
-  <dimension ref="A1:U55"/>
+  <dimension ref="A1:U94"/>
   <sheetViews>
-    <sheetView topLeftCell="B20" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A80" sqref="A80:XFD80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="53.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="100.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="100.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="100.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="53.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="100.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="100.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="100.1640625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="24.875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="29.625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="24.875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.6640625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
+      <c r="B1" s="26"/>
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
@@ -4726,20 +5938,20 @@
       <c r="T1" s="3"/>
       <c r="U1" s="4"/>
     </row>
-    <row r="2" spans="1:21">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
     </row>
-    <row r="3" spans="1:21">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-    </row>
-    <row r="4" spans="1:21" ht="24">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
+    </row>
+    <row r="4" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>1</v>
       </c>
@@ -4747,7 +5959,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="18.95">
+    <row r="5" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>3</v>
       </c>
@@ -4755,7 +5967,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="18.95">
+    <row r="6" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
@@ -4763,7 +5975,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="18.95">
+    <row r="7" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>7</v>
       </c>
@@ -4771,7 +5983,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="18.95">
+    <row r="8" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>9</v>
       </c>
@@ -4779,7 +5991,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="18.95">
+    <row r="9" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>11</v>
       </c>
@@ -4787,7 +5999,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="18.95">
+    <row r="10" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>13</v>
       </c>
@@ -4795,7 +6007,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="18.95">
+    <row r="11" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>15</v>
       </c>
@@ -4803,7 +6015,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="18.95">
+    <row r="12" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>17</v>
       </c>
@@ -4811,7 +6023,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="35.1">
+    <row r="13" spans="1:21" ht="35" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>19</v>
       </c>
@@ -4819,7 +6031,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="18.95">
+    <row r="14" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>21</v>
       </c>
@@ -4827,7 +6039,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="18.95">
+    <row r="15" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>23</v>
       </c>
@@ -4835,7 +6047,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="18.95">
+    <row r="16" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>25</v>
       </c>
@@ -4843,7 +6055,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="18.95">
+    <row r="17" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>27</v>
       </c>
@@ -4851,7 +6063,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="18.95">
+    <row r="18" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>29</v>
       </c>
@@ -4859,37 +6071,37 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.95" customHeight="1">
-      <c r="A19" s="23" t="s">
+    <row r="19" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="25" t="s">
+      <c r="B19" s="22"/>
+      <c r="C19" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="25"/>
-      <c r="E19" s="26" t="s">
+      <c r="D19" s="24"/>
+      <c r="E19" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="F19" s="26"/>
-    </row>
-    <row r="20" spans="1:6" ht="15.95" customHeight="1">
-      <c r="A20" s="23"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-    </row>
-    <row r="21" spans="1:6" ht="15.95" customHeight="1">
-      <c r="A21" s="24"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-    </row>
-    <row r="22" spans="1:6" ht="24">
+      <c r="F19" s="25"/>
+    </row>
+    <row r="20" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="22"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+    </row>
+    <row r="21" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="23"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+    </row>
+    <row r="22" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>1</v>
       </c>
@@ -4909,7 +6121,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="20" t="s">
         <v>34</v>
       </c>
@@ -4929,7 +6141,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="20" t="s">
         <v>36</v>
       </c>
@@ -4949,7 +6161,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="20" t="s">
         <v>38</v>
       </c>
@@ -4969,7 +6181,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="20" t="s">
         <v>40</v>
       </c>
@@ -4989,7 +6201,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="20" t="s">
         <v>42</v>
       </c>
@@ -5009,7 +6221,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="33.950000000000003">
+    <row r="28" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" s="20" t="s">
         <v>44</v>
       </c>
@@ -5029,7 +6241,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="20" t="s">
         <v>45</v>
       </c>
@@ -5049,7 +6261,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="20" t="s">
         <v>47</v>
       </c>
@@ -5069,7 +6281,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="20" t="s">
         <v>51</v>
       </c>
@@ -5089,7 +6301,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="20" t="s">
         <v>53</v>
       </c>
@@ -5109,7 +6321,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="20" t="s">
         <v>54</v>
       </c>
@@ -5129,7 +6341,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="20" t="s">
         <v>56</v>
       </c>
@@ -5149,7 +6361,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="20" t="s">
         <v>58</v>
       </c>
@@ -5169,7 +6381,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="20" t="s">
         <v>61</v>
       </c>
@@ -5189,7 +6401,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="20" t="s">
         <v>65</v>
       </c>
@@ -5209,7 +6421,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="20" t="s">
         <v>69</v>
       </c>
@@ -5229,7 +6441,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="20" t="s">
         <v>71</v>
       </c>
@@ -5249,7 +6461,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="20" t="s">
         <v>75</v>
       </c>
@@ -5269,7 +6481,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="20" t="s">
         <v>79</v>
       </c>
@@ -5289,7 +6501,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="20" t="s">
         <v>83</v>
       </c>
@@ -5309,7 +6521,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="20" t="s">
         <v>85</v>
       </c>
@@ -5329,7 +6541,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="20" t="s">
         <v>86</v>
       </c>
@@ -5349,7 +6561,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="33.950000000000003">
+    <row r="45" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A45" s="20" t="s">
         <v>88</v>
       </c>
@@ -5369,7 +6581,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="20" t="s">
         <v>89</v>
       </c>
@@ -5389,7 +6601,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="20" t="s">
         <v>91</v>
       </c>
@@ -5409,7 +6621,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="20" t="s">
         <v>38</v>
       </c>
@@ -5429,7 +6641,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="20" t="s">
         <v>93</v>
       </c>
@@ -5449,7 +6661,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="20" t="s">
         <v>95</v>
       </c>
@@ -5469,7 +6681,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="20" t="s">
         <v>97</v>
       </c>
@@ -5489,7 +6701,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="20" t="s">
         <v>98</v>
       </c>
@@ -5509,7 +6721,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="20" t="s">
         <v>102</v>
       </c>
@@ -5529,7 +6741,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="20" t="s">
         <v>104</v>
       </c>
@@ -5549,7 +6761,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="33.950000000000003">
+    <row r="55" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A55" s="20" t="s">
         <v>106</v>
       </c>
@@ -5569,12 +6781,289 @@
         <v>20</v>
       </c>
     </row>
+    <row r="59" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="B59" s="34" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="33"/>
+      <c r="B60" s="35"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="B61" s="36"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="26"/>
+      <c r="B62" s="26"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="27"/>
+      <c r="B63" s="27"/>
+    </row>
+    <row r="64" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+      <c r="A64" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B64" s="14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B65" s="16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B66" s="16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B67" s="16" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B68" s="16" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B69" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A70" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="B70" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B71" s="16" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="B72" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="B73" s="16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="B74" s="16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="B75" s="16">
+        <v>20250417090000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="B76" s="16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="B77" s="16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="B78" s="16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B79" s="16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="B80" s="16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="B81" s="16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="B82" s="16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="B83" s="16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="B84" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="B85" s="16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A86" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="B86" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="B87" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="B88" s="16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="B89" s="16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="B90" s="16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="B91" s="16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="B92" s="16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="B93" s="16" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A94" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="B94" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
+    <mergeCell ref="A61:B63"/>
     <mergeCell ref="A1:B3"/>
     <mergeCell ref="A19:B21"/>
     <mergeCell ref="C19:D21"/>
     <mergeCell ref="E19:F21"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
@@ -5585,29 +7074,29 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A2BEC7B-90CA-E749-B119-EA86C4AFA282}">
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:H93"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="A79" sqref="A79:XFD79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="53.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="100.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="100.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="100.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="53.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="100.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="100.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="100.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
+      <c r="B1" s="26"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -5615,9 +7104,9 @@
       <c r="G1" s="3"/>
       <c r="H1" s="4"/>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -5625,11 +7114,11 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-    </row>
-    <row r="4" spans="1:8" ht="24">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
+    </row>
+    <row r="4" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>1</v>
       </c>
@@ -5637,7 +7126,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="18.95">
+    <row r="5" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>3</v>
       </c>
@@ -5645,7 +7134,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18.95">
+    <row r="6" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
@@ -5653,7 +7142,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18.95">
+    <row r="7" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>7</v>
       </c>
@@ -5661,7 +7150,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="18.95">
+    <row r="8" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>9</v>
       </c>
@@ -5669,7 +7158,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="18.95">
+    <row r="9" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>11</v>
       </c>
@@ -5677,7 +7166,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="18.95">
+    <row r="10" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>13</v>
       </c>
@@ -5685,7 +7174,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="18.95">
+    <row r="11" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>15</v>
       </c>
@@ -5693,7 +7182,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="18.95">
+    <row r="12" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>17</v>
       </c>
@@ -5701,7 +7190,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="35.1">
+    <row r="13" spans="1:8" ht="35" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>19</v>
       </c>
@@ -5709,7 +7198,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="18.95">
+    <row r="14" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>21</v>
       </c>
@@ -5717,7 +7206,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="18.95">
+    <row r="15" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>23</v>
       </c>
@@ -5725,7 +7214,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="18.95">
+    <row r="16" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>25</v>
       </c>
@@ -5733,7 +7222,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="18.95">
+    <row r="17" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>27</v>
       </c>
@@ -5741,7 +7230,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="18.95">
+    <row r="18" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>29</v>
       </c>
@@ -5749,37 +7238,37 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.95" customHeight="1">
-      <c r="A19" s="23" t="s">
+    <row r="19" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="25" t="s">
+      <c r="B19" s="22"/>
+      <c r="C19" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="25"/>
-      <c r="E19" s="26" t="s">
+      <c r="D19" s="24"/>
+      <c r="E19" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="F19" s="26"/>
-    </row>
-    <row r="20" spans="1:6" ht="15.95" customHeight="1">
-      <c r="A20" s="23"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-    </row>
-    <row r="21" spans="1:6" ht="15.95" customHeight="1">
-      <c r="A21" s="24"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-    </row>
-    <row r="22" spans="1:6" ht="24">
+      <c r="F19" s="25"/>
+    </row>
+    <row r="20" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="22"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+    </row>
+    <row r="21" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="23"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+    </row>
+    <row r="22" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>1</v>
       </c>
@@ -5799,7 +7288,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="20" t="s">
         <v>34</v>
       </c>
@@ -5819,7 +7308,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="20" t="s">
         <v>36</v>
       </c>
@@ -5839,7 +7328,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="20" t="s">
         <v>38</v>
       </c>
@@ -5859,7 +7348,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="20" t="s">
         <v>40</v>
       </c>
@@ -5879,7 +7368,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="20" t="s">
         <v>42</v>
       </c>
@@ -5899,7 +7388,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="33.950000000000003">
+    <row r="28" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" s="20" t="s">
         <v>44</v>
       </c>
@@ -5919,7 +7408,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="20" t="s">
         <v>45</v>
       </c>
@@ -5939,7 +7428,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="20" t="s">
         <v>47</v>
       </c>
@@ -5959,7 +7448,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="20" t="s">
         <v>51</v>
       </c>
@@ -5979,7 +7468,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="20" t="s">
         <v>53</v>
       </c>
@@ -5999,7 +7488,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="20" t="s">
         <v>54</v>
       </c>
@@ -6019,7 +7508,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="20" t="s">
         <v>56</v>
       </c>
@@ -6039,7 +7528,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="20" t="s">
         <v>58</v>
       </c>
@@ -6059,7 +7548,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="20" t="s">
         <v>61</v>
       </c>
@@ -6079,7 +7568,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="20" t="s">
         <v>65</v>
       </c>
@@ -6099,7 +7588,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="20" t="s">
         <v>69</v>
       </c>
@@ -6119,7 +7608,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="20" t="s">
         <v>71</v>
       </c>
@@ -6139,7 +7628,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="20" t="s">
         <v>75</v>
       </c>
@@ -6159,7 +7648,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="20" t="s">
         <v>79</v>
       </c>
@@ -6179,7 +7668,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="20" t="s">
         <v>83</v>
       </c>
@@ -6199,7 +7688,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="20" t="s">
         <v>85</v>
       </c>
@@ -6219,7 +7708,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="20" t="s">
         <v>86</v>
       </c>
@@ -6239,7 +7728,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="33.950000000000003">
+    <row r="45" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A45" s="20" t="s">
         <v>88</v>
       </c>
@@ -6259,7 +7748,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="20" t="s">
         <v>89</v>
       </c>
@@ -6279,7 +7768,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="20" t="s">
         <v>91</v>
       </c>
@@ -6299,7 +7788,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="20" t="s">
         <v>38</v>
       </c>
@@ -6319,7 +7808,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="20" t="s">
         <v>93</v>
       </c>
@@ -6339,7 +7828,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="20" t="s">
         <v>95</v>
       </c>
@@ -6359,7 +7848,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="20" t="s">
         <v>97</v>
       </c>
@@ -6379,7 +7868,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="20" t="s">
         <v>98</v>
       </c>
@@ -6399,7 +7888,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="20" t="s">
         <v>102</v>
       </c>
@@ -6419,7 +7908,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="20" t="s">
         <v>104</v>
       </c>
@@ -6439,7 +7928,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="33.950000000000003">
+    <row r="55" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A55" s="20" t="s">
         <v>106</v>
       </c>
@@ -6459,12 +7948,289 @@
         <v>20</v>
       </c>
     </row>
+    <row r="58" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="B58" s="34" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="33"/>
+      <c r="B59" s="35"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="B60" s="36"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="26"/>
+      <c r="B61" s="26"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="27"/>
+      <c r="B62" s="27"/>
+    </row>
+    <row r="63" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+      <c r="A63" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B63" s="14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B64" s="16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B65" s="16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B66" s="16" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B67" s="16" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B68" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A69" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="B69" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B70" s="16" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="B71" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="B72" s="16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="B73" s="16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="B74" s="16">
+        <v>20250417090000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="B75" s="16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="B76" s="16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="B77" s="16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B78" s="16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="B79" s="16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="B80" s="16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="B81" s="16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="B82" s="16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="B83" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="B84" s="16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A85" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="B85" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="B86" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="B87" s="16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="B88" s="16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="B89" s="16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="B90" s="16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="B91" s="16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="B92" s="16" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A93" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="B93" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
+    <mergeCell ref="A60:B62"/>
     <mergeCell ref="A1:B3"/>
     <mergeCell ref="A19:B21"/>
     <mergeCell ref="C19:D21"/>
     <mergeCell ref="E19:F21"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B58:B59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
@@ -6475,33 +8241,33 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBC37BBB-52D5-054A-8F01-AC2B5389B5CB}">
-  <dimension ref="A1:U55"/>
+  <dimension ref="A1:U93"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="A79" sqref="A79:XFD79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="53.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="100.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="100.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="100.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="53.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="100.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="100.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="100.1640625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="24.875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="29.625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="24.875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.6640625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
+      <c r="B1" s="26"/>
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
@@ -6509,20 +8275,20 @@
       <c r="T1" s="3"/>
       <c r="U1" s="4"/>
     </row>
-    <row r="2" spans="1:21">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
     </row>
-    <row r="3" spans="1:21">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-    </row>
-    <row r="4" spans="1:21" ht="24">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
+    </row>
+    <row r="4" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>1</v>
       </c>
@@ -6530,7 +8296,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="18.95">
+    <row r="5" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>3</v>
       </c>
@@ -6538,7 +8304,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="18.95">
+    <row r="6" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
@@ -6546,7 +8312,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="18.95">
+    <row r="7" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>7</v>
       </c>
@@ -6554,7 +8320,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="18.95">
+    <row r="8" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>9</v>
       </c>
@@ -6562,7 +8328,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="18.95">
+    <row r="9" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>11</v>
       </c>
@@ -6570,7 +8336,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="18.95">
+    <row r="10" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>13</v>
       </c>
@@ -6578,7 +8344,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="18.95">
+    <row r="11" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>15</v>
       </c>
@@ -6586,7 +8352,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="18.95">
+    <row r="12" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>17</v>
       </c>
@@ -6594,7 +8360,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="35.1">
+    <row r="13" spans="1:21" ht="35" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>19</v>
       </c>
@@ -6602,7 +8368,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="18.95">
+    <row r="14" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>21</v>
       </c>
@@ -6610,7 +8376,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="18.95">
+    <row r="15" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>23</v>
       </c>
@@ -6618,7 +8384,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="18.95">
+    <row r="16" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>25</v>
       </c>
@@ -6626,7 +8392,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="18.95">
+    <row r="17" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>27</v>
       </c>
@@ -6634,7 +8400,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="18.95">
+    <row r="18" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>29</v>
       </c>
@@ -6642,37 +8408,37 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.95" customHeight="1">
-      <c r="A19" s="23" t="s">
+    <row r="19" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="25" t="s">
+      <c r="B19" s="22"/>
+      <c r="C19" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="25"/>
-      <c r="E19" s="26" t="s">
+      <c r="D19" s="24"/>
+      <c r="E19" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="F19" s="26"/>
-    </row>
-    <row r="20" spans="1:6" ht="15.95" customHeight="1">
-      <c r="A20" s="23"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-    </row>
-    <row r="21" spans="1:6" ht="15.95" customHeight="1">
-      <c r="A21" s="24"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-    </row>
-    <row r="22" spans="1:6" ht="24">
+      <c r="F19" s="25"/>
+    </row>
+    <row r="20" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="22"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+    </row>
+    <row r="21" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="23"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+    </row>
+    <row r="22" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>1</v>
       </c>
@@ -6692,7 +8458,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="20" t="s">
         <v>34</v>
       </c>
@@ -6712,7 +8478,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="20" t="s">
         <v>36</v>
       </c>
@@ -6732,7 +8498,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="20" t="s">
         <v>38</v>
       </c>
@@ -6752,7 +8518,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="20" t="s">
         <v>40</v>
       </c>
@@ -6772,7 +8538,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="20" t="s">
         <v>42</v>
       </c>
@@ -6792,7 +8558,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="33.950000000000003">
+    <row r="28" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" s="20" t="s">
         <v>44</v>
       </c>
@@ -6812,7 +8578,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="20" t="s">
         <v>45</v>
       </c>
@@ -6832,7 +8598,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="20" t="s">
         <v>47</v>
       </c>
@@ -6852,7 +8618,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="20" t="s">
         <v>51</v>
       </c>
@@ -6872,7 +8638,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="20" t="s">
         <v>53</v>
       </c>
@@ -6892,7 +8658,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="1:19">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" s="20" t="s">
         <v>54</v>
       </c>
@@ -6912,7 +8678,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:19">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" s="20" t="s">
         <v>56</v>
       </c>
@@ -6932,7 +8698,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:19">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" s="20" t="s">
         <v>58</v>
       </c>
@@ -6952,7 +8718,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:19">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" s="20" t="s">
         <v>61</v>
       </c>
@@ -6972,7 +8738,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:19">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" s="20" t="s">
         <v>65</v>
       </c>
@@ -6992,7 +8758,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="38" spans="1:19">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" s="20" t="s">
         <v>69</v>
       </c>
@@ -7012,7 +8778,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="39" spans="1:19">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" s="20" t="s">
         <v>71</v>
       </c>
@@ -7032,7 +8798,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="40" spans="1:19">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40" s="20" t="s">
         <v>75</v>
       </c>
@@ -7052,7 +8818,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="41" spans="1:19">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41" s="20" t="s">
         <v>79</v>
       </c>
@@ -7072,7 +8838,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="1:19">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A42" s="20" t="s">
         <v>83</v>
       </c>
@@ -7092,7 +8858,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="43" spans="1:19">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A43" s="20" t="s">
         <v>85</v>
       </c>
@@ -7112,7 +8878,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:19">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A44" s="20" t="s">
         <v>86</v>
       </c>
@@ -7132,7 +8898,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:19" ht="33.950000000000003">
+    <row r="45" spans="1:19" ht="34" x14ac:dyDescent="0.2">
       <c r="A45" s="20" t="s">
         <v>88</v>
       </c>
@@ -7153,7 +8919,7 @@
       </c>
       <c r="S45" s="2"/>
     </row>
-    <row r="46" spans="1:19">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A46" s="20" t="s">
         <v>89</v>
       </c>
@@ -7173,7 +8939,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="47" spans="1:19">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A47" s="20" t="s">
         <v>91</v>
       </c>
@@ -7193,7 +8959,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="48" spans="1:19">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A48" s="20" t="s">
         <v>38</v>
       </c>
@@ -7213,7 +8979,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="20" t="s">
         <v>93</v>
       </c>
@@ -7233,7 +8999,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="20" t="s">
         <v>95</v>
       </c>
@@ -7253,7 +9019,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="20" t="s">
         <v>97</v>
       </c>
@@ -7273,7 +9039,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="20" t="s">
         <v>98</v>
       </c>
@@ -7293,7 +9059,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="20" t="s">
         <v>102</v>
       </c>
@@ -7313,7 +9079,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="20" t="s">
         <v>104</v>
       </c>
@@ -7333,7 +9099,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="33.950000000000003">
+    <row r="55" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A55" s="20" t="s">
         <v>106</v>
       </c>
@@ -7353,12 +9119,289 @@
         <v>20</v>
       </c>
     </row>
+    <row r="58" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="B58" s="34" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="33"/>
+      <c r="B59" s="35"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="B60" s="36"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="26"/>
+      <c r="B61" s="26"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="27"/>
+      <c r="B62" s="27"/>
+    </row>
+    <row r="63" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+      <c r="A63" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B63" s="14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B64" s="16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B65" s="16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B66" s="16" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B67" s="16" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B68" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A69" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="B69" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B70" s="16" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="B71" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="B72" s="16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="B73" s="16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="B74" s="16">
+        <v>20250417090000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="B75" s="16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="B76" s="16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="B77" s="16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B78" s="16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="B79" s="16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="B80" s="16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="B81" s="16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="B82" s="16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="B83" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="B84" s="16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A85" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="B85" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="B86" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="B87" s="16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="B88" s="16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="B89" s="16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="B90" s="16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="B91" s="16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="B92" s="16" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A93" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="B93" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
+    <mergeCell ref="A60:B62"/>
     <mergeCell ref="A1:B3"/>
     <mergeCell ref="A19:B21"/>
     <mergeCell ref="C19:D21"/>
     <mergeCell ref="E19:F21"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B58:B59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
@@ -7369,29 +9412,29 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AB45BD8-2BF4-7242-8D4F-C95619735991}">
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:H93"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A79" sqref="A79:XFD79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="53.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="100.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="100.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="100.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="53.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="100.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="100.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="100.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
+      <c r="B1" s="26"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -7399,20 +9442,20 @@
       <c r="G1" s="3"/>
       <c r="H1" s="4"/>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-    </row>
-    <row r="4" spans="1:8" ht="24">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
+    </row>
+    <row r="4" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>1</v>
       </c>
@@ -7420,7 +9463,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="18.95">
+    <row r="5" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>3</v>
       </c>
@@ -7428,7 +9471,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18.95">
+    <row r="6" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
@@ -7436,7 +9479,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18.95">
+    <row r="7" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>7</v>
       </c>
@@ -7444,7 +9487,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="18.95">
+    <row r="8" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>9</v>
       </c>
@@ -7452,7 +9495,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="18.95">
+    <row r="9" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>11</v>
       </c>
@@ -7460,7 +9503,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="18.95">
+    <row r="10" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>13</v>
       </c>
@@ -7468,7 +9511,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="18.95">
+    <row r="11" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>15</v>
       </c>
@@ -7476,7 +9519,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="18.95">
+    <row r="12" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>17</v>
       </c>
@@ -7484,7 +9527,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="35.1">
+    <row r="13" spans="1:8" ht="35" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>19</v>
       </c>
@@ -7492,7 +9535,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="18.95">
+    <row r="14" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>21</v>
       </c>
@@ -7500,7 +9543,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="18.95">
+    <row r="15" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>23</v>
       </c>
@@ -7508,7 +9551,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="18.95">
+    <row r="16" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>25</v>
       </c>
@@ -7516,7 +9559,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="18.95">
+    <row r="17" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>27</v>
       </c>
@@ -7524,7 +9567,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="18.95">
+    <row r="18" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>29</v>
       </c>
@@ -7532,37 +9575,37 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.95" customHeight="1">
-      <c r="A19" s="23" t="s">
+    <row r="19" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="25" t="s">
+      <c r="B19" s="22"/>
+      <c r="C19" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="25"/>
-      <c r="E19" s="26" t="s">
+      <c r="D19" s="24"/>
+      <c r="E19" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="F19" s="26"/>
-    </row>
-    <row r="20" spans="1:6" ht="15.95" customHeight="1">
-      <c r="A20" s="23"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-    </row>
-    <row r="21" spans="1:6" ht="15.95" customHeight="1">
-      <c r="A21" s="24"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-    </row>
-    <row r="22" spans="1:6" ht="24">
+      <c r="F19" s="25"/>
+    </row>
+    <row r="20" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="22"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+    </row>
+    <row r="21" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="23"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+    </row>
+    <row r="22" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>1</v>
       </c>
@@ -7582,7 +9625,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="20" t="s">
         <v>34</v>
       </c>
@@ -7602,7 +9645,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="20" t="s">
         <v>36</v>
       </c>
@@ -7622,7 +9665,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="20" t="s">
         <v>38</v>
       </c>
@@ -7642,7 +9685,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="20" t="s">
         <v>40</v>
       </c>
@@ -7662,7 +9705,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="20" t="s">
         <v>42</v>
       </c>
@@ -7682,7 +9725,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="33.950000000000003">
+    <row r="28" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" s="20" t="s">
         <v>44</v>
       </c>
@@ -7702,7 +9745,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="20" t="s">
         <v>45</v>
       </c>
@@ -7722,7 +9765,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="20" t="s">
         <v>47</v>
       </c>
@@ -7742,7 +9785,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="20" t="s">
         <v>51</v>
       </c>
@@ -7762,7 +9805,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="20" t="s">
         <v>53</v>
       </c>
@@ -7782,7 +9825,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="20" t="s">
         <v>54</v>
       </c>
@@ -7802,7 +9845,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="20" t="s">
         <v>56</v>
       </c>
@@ -7822,7 +9865,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="20" t="s">
         <v>58</v>
       </c>
@@ -7842,7 +9885,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="20" t="s">
         <v>61</v>
       </c>
@@ -7862,7 +9905,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="20" t="s">
         <v>65</v>
       </c>
@@ -7882,7 +9925,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="20" t="s">
         <v>69</v>
       </c>
@@ -7902,7 +9945,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="20" t="s">
         <v>71</v>
       </c>
@@ -7922,7 +9965,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="20" t="s">
         <v>75</v>
       </c>
@@ -7942,7 +9985,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="20" t="s">
         <v>79</v>
       </c>
@@ -7962,7 +10005,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="20" t="s">
         <v>83</v>
       </c>
@@ -7982,7 +10025,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="20" t="s">
         <v>85</v>
       </c>
@@ -8002,7 +10045,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="20" t="s">
         <v>86</v>
       </c>
@@ -8022,7 +10065,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="33.950000000000003">
+    <row r="45" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A45" s="20" t="s">
         <v>88</v>
       </c>
@@ -8042,7 +10085,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="20" t="s">
         <v>89</v>
       </c>
@@ -8062,7 +10105,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="20" t="s">
         <v>91</v>
       </c>
@@ -8082,7 +10125,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="20" t="s">
         <v>38</v>
       </c>
@@ -8102,7 +10145,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="20" t="s">
         <v>93</v>
       </c>
@@ -8122,7 +10165,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="20" t="s">
         <v>95</v>
       </c>
@@ -8142,7 +10185,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="20" t="s">
         <v>97</v>
       </c>
@@ -8162,7 +10205,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="20" t="s">
         <v>98</v>
       </c>
@@ -8182,7 +10225,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="20" t="s">
         <v>102</v>
       </c>
@@ -8202,7 +10245,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="20" t="s">
         <v>104</v>
       </c>
@@ -8222,7 +10265,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="33.950000000000003">
+    <row r="55" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A55" s="20" t="s">
         <v>106</v>
       </c>
@@ -8242,12 +10285,289 @@
         <v>20</v>
       </c>
     </row>
+    <row r="58" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="B58" s="34" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="33"/>
+      <c r="B59" s="35"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="B60" s="36"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="26"/>
+      <c r="B61" s="26"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="27"/>
+      <c r="B62" s="27"/>
+    </row>
+    <row r="63" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+      <c r="A63" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B63" s="14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B64" s="16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B65" s="16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B66" s="16" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B67" s="16" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B68" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A69" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="B69" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B70" s="16" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="B71" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="B72" s="16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="B73" s="16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="B74" s="16">
+        <v>20250417090000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="B75" s="16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="B76" s="16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="B77" s="16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B78" s="16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="B79" s="16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="B80" s="16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="B81" s="16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="B82" s="16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="B83" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="B84" s="16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A85" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="B85" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="B86" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="B87" s="16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="B88" s="16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="B89" s="16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="B90" s="16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="B91" s="16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="B92" s="16" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A93" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="B93" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
+    <mergeCell ref="A60:B62"/>
     <mergeCell ref="A1:B3"/>
     <mergeCell ref="A19:B21"/>
     <mergeCell ref="C19:D21"/>
     <mergeCell ref="E19:F21"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B58:B59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
@@ -8258,44 +10578,44 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9932051D-5DB6-4247-BC1D-3490D4640DB1}">
-  <dimension ref="A1:F55"/>
+  <dimension ref="A1:F94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C18" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A80" sqref="A80:XFD80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="53.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="100.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="53.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="100.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="100.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="100.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="33.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="100.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="100.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
+      <c r="B1" s="26"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-    </row>
-    <row r="4" spans="1:6" ht="24">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
+    </row>
+    <row r="4" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>1</v>
       </c>
@@ -8303,7 +10623,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="18.95">
+    <row r="5" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>3</v>
       </c>
@@ -8311,7 +10631,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="18.95">
+    <row r="6" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
@@ -8319,7 +10639,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="18.95">
+    <row r="7" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>7</v>
       </c>
@@ -8327,7 +10647,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="18.95">
+    <row r="8" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>9</v>
       </c>
@@ -8335,7 +10655,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="18.95">
+    <row r="9" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>11</v>
       </c>
@@ -8343,7 +10663,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="18.95">
+    <row r="10" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>13</v>
       </c>
@@ -8351,7 +10671,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="18.95">
+    <row r="11" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>15</v>
       </c>
@@ -8359,7 +10679,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="18.95">
+    <row r="12" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>17</v>
       </c>
@@ -8367,7 +10687,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="35.1">
+    <row r="13" spans="1:6" ht="35" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>19</v>
       </c>
@@ -8375,7 +10695,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="18.95">
+    <row r="14" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>21</v>
       </c>
@@ -8383,7 +10703,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="18.95">
+    <row r="15" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>23</v>
       </c>
@@ -8391,7 +10711,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="18.95">
+    <row r="16" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>25</v>
       </c>
@@ -8399,7 +10719,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="18.95">
+    <row r="17" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>27</v>
       </c>
@@ -8407,7 +10727,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="18.95">
+    <row r="18" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>29</v>
       </c>
@@ -8415,37 +10735,37 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="23" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="25" t="s">
+      <c r="B19" s="22"/>
+      <c r="C19" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="25"/>
-      <c r="E19" s="26" t="s">
+      <c r="D19" s="24"/>
+      <c r="E19" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="F19" s="26"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="23"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="24"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-    </row>
-    <row r="22" spans="1:6" ht="24">
+      <c r="F19" s="25"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="22"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="23"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+    </row>
+    <row r="22" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>1</v>
       </c>
@@ -8465,7 +10785,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="20" t="s">
         <v>34</v>
       </c>
@@ -8485,7 +10805,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="20" t="s">
         <v>36</v>
       </c>
@@ -8505,7 +10825,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="20" t="s">
         <v>38</v>
       </c>
@@ -8525,7 +10845,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="20" t="s">
         <v>40</v>
       </c>
@@ -8545,7 +10865,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="20" t="s">
         <v>42</v>
       </c>
@@ -8565,7 +10885,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="33.950000000000003">
+    <row r="28" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" s="20" t="s">
         <v>44</v>
       </c>
@@ -8585,7 +10905,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="20" t="s">
         <v>45</v>
       </c>
@@ -8605,7 +10925,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="20" t="s">
         <v>47</v>
       </c>
@@ -8625,7 +10945,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="20" t="s">
         <v>51</v>
       </c>
@@ -8645,7 +10965,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="20" t="s">
         <v>53</v>
       </c>
@@ -8665,7 +10985,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="20" t="s">
         <v>54</v>
       </c>
@@ -8685,7 +11005,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="20" t="s">
         <v>56</v>
       </c>
@@ -8705,7 +11025,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="20" t="s">
         <v>58</v>
       </c>
@@ -8725,7 +11045,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="20" t="s">
         <v>61</v>
       </c>
@@ -8745,7 +11065,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="20" t="s">
         <v>65</v>
       </c>
@@ -8765,7 +11085,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="20" t="s">
         <v>69</v>
       </c>
@@ -8785,7 +11105,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="20" t="s">
         <v>71</v>
       </c>
@@ -8805,7 +11125,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="20" t="s">
         <v>75</v>
       </c>
@@ -8825,7 +11145,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="20" t="s">
         <v>79</v>
       </c>
@@ -8845,7 +11165,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="20" t="s">
         <v>83</v>
       </c>
@@ -8865,7 +11185,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="20" t="s">
         <v>85</v>
       </c>
@@ -8885,7 +11205,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="20" t="s">
         <v>86</v>
       </c>
@@ -8905,7 +11225,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="33.950000000000003">
+    <row r="45" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A45" s="20" t="s">
         <v>88</v>
       </c>
@@ -8925,7 +11245,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="20" t="s">
         <v>89</v>
       </c>
@@ -8945,7 +11265,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="20" t="s">
         <v>91</v>
       </c>
@@ -8965,7 +11285,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="20" t="s">
         <v>38</v>
       </c>
@@ -8985,7 +11305,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="20" t="s">
         <v>93</v>
       </c>
@@ -9005,7 +11325,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="20" t="s">
         <v>95</v>
       </c>
@@ -9025,7 +11345,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="20" t="s">
         <v>97</v>
       </c>
@@ -9045,7 +11365,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="20" t="s">
         <v>98</v>
       </c>
@@ -9065,7 +11385,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="20" t="s">
         <v>102</v>
       </c>
@@ -9085,7 +11405,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="20" t="s">
         <v>104</v>
       </c>
@@ -9105,7 +11425,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="33.950000000000003">
+    <row r="55" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A55" s="20" t="s">
         <v>106</v>
       </c>
@@ -9125,12 +11445,289 @@
         <v>20</v>
       </c>
     </row>
+    <row r="59" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="B59" s="34" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="33"/>
+      <c r="B60" s="35"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="B61" s="36"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="26"/>
+      <c r="B62" s="26"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="27"/>
+      <c r="B63" s="27"/>
+    </row>
+    <row r="64" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+      <c r="A64" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B64" s="14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B65" s="16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B66" s="16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B67" s="16" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B68" s="16" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B69" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A70" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="B70" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B71" s="16" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="B72" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="B73" s="16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="B74" s="16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="B75" s="16">
+        <v>20250417090000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="B76" s="16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="B77" s="16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="B78" s="16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B79" s="16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="B80" s="16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="B81" s="16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="B82" s="16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="B83" s="16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="B84" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="B85" s="16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A86" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="B86" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="B87" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="B88" s="16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="B89" s="16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="B90" s="16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="B91" s="16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="B92" s="16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="B93" s="16" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A94" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="B94" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
+    <mergeCell ref="A61:B63"/>
     <mergeCell ref="A1:B3"/>
     <mergeCell ref="A19:B21"/>
     <mergeCell ref="C19:D21"/>
     <mergeCell ref="E19:F21"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
@@ -9140,25 +11737,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ca719f03-9e45-4ef4-9920-d156f53157f2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F560B38A5B3C4B41B1895754B1F1A56A" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f5a836e7bcf6cda3c6d96dc8b955563d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ca719f03-9e45-4ef4-9920-d156f53157f2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3a91d3ec98e5e1ec34e4c390562d1a64" ns2:_="">
     <xsd:import namespace="ca719f03-9e45-4ef4-9920-d156f53157f2"/>
@@ -9330,14 +11908,57 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ca719f03-9e45-4ef4-9920-d156f53157f2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B98185F2-E347-4271-BA48-71047E47F1D8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C4430F7-2A28-423A-A610-CED560EBCA01}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ca719f03-9e45-4ef4-9920-d156f53157f2"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{688B866F-1332-4022-9180-162CB7FBCD6E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{688B866F-1332-4022-9180-162CB7FBCD6E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ca719f03-9e45-4ef4-9920-d156f53157f2"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C4430F7-2A28-423A-A610-CED560EBCA01}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B98185F2-E347-4271-BA48-71047E47F1D8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>